--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2169467.275977591</v>
+        <v>-2169903.591652036</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.883499686</v>
+        <v>218615.8834996851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -674,7 +674,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>6.277276078138641</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>274.0046120811086</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>55.00959035474268</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -750,7 +750,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.088173263007512</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.75270603218306</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60.70050068014593</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>143.2952904994788</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.265762132095</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1032,16 +1032,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>79.02505399341086</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>157.2820875658483</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.8649255692296</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>145.4025650447006</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>319.9745586914862</v>
+        <v>272.0159950724646</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1272,13 +1272,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>67.04814944130179</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6250375824465141</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>61.72400032816224</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.61010385670627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
         <v>277.2012677100157</v>
@@ -1379,16 +1379,16 @@
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678985</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>320.048489265321</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>73.00551225234551</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091666</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
-        <v>2.790776056380167</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>267.0151234259421</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586887</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.0306218014139</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.8253575825031</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790358</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126142</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944773</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079557</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348599</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.33804435684929</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
         <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>191.400380052742</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.32342003693036</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678985</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>320.048489265321</v>
+        <v>225.5629214540452</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091666</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>33.36398602278254</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>267.0151234259421</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586887</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541868</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>53.13297117133678</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.8253575825031</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D16" t="n">
-        <v>34.4284226602213</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126142</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944773</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079557</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348599</v>
+        <v>65.88446135348597</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>14.50498690864528</v>
       </c>
       <c r="W16" t="n">
-        <v>191.400380052742</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046128</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C17" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D17" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E17" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F17" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G17" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H17" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I17" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T17" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U17" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W17" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X17" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1983,7 +1983,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>224.3372187935202</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C19" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T19" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U19" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V19" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W19" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X19" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050097</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G24" t="n">
         <v>127.4412149769483</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189422</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634702</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213529</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171349</v>
+        <v>42.42795794171332</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437112</v>
+        <v>56.69561675437095</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472048</v>
+        <v>93.45428794472031</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014396</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121431</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083419</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133619</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554797</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595756</v>
+        <v>53.05874613595739</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135805</v>
+        <v>39.25874098135787</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893643</v>
+        <v>22.88010537893626</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471588</v>
+        <v>21.82785523471571</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290219</v>
+        <v>22.29477956290202</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228425003</v>
+        <v>38.56948228424986</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694045</v>
+        <v>29.11784990694028</v>
       </c>
       <c r="I28" t="n">
-        <v>14.0999450917698</v>
+        <v>14.09994509176963</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018711</v>
+        <v>19.36549471018694</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877085</v>
+        <v>82.91159610877068</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908995</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355832</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806722</v>
+        <v>91.15373835806705</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189422</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634702</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213529</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171349</v>
+        <v>42.42795794171332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437112</v>
+        <v>56.69561675437095</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472048</v>
+        <v>93.45428794472031</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014396</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121431</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083419</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2931,10 +2931,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>224.3372187935196</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554797</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595756</v>
+        <v>53.05874613595739</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135805</v>
+        <v>39.25874098135787</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893643</v>
+        <v>22.88010537893626</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471588</v>
+        <v>21.82785523471571</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290219</v>
+        <v>22.29477956290202</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228425003</v>
+        <v>38.56948228424986</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694045</v>
+        <v>29.11784990694028</v>
       </c>
       <c r="I31" t="n">
-        <v>14.0999450917698</v>
+        <v>14.09994509176963</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018711</v>
+        <v>19.36549471018694</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877085</v>
+        <v>82.91159610877068</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908995</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355832</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806722</v>
+        <v>91.15373835806705</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.327175636089</v>
+        <v>253.3271756360891</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654204</v>
+        <v>34.31309831654207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919967</v>
+        <v>48.5807571291997</v>
       </c>
       <c r="T32" t="n">
-        <v>85.33942831954903</v>
+        <v>85.33942831954906</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
@@ -3095,7 +3095,7 @@
         <v>241.4339105869717</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831704</v>
+        <v>252.8305083831705</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>118.781368784121</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -3171,7 +3171,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>181.3723269554797</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078611</v>
+        <v>44.94388651078614</v>
       </c>
       <c r="C34" t="n">
-        <v>31.1438813561866</v>
+        <v>31.14388135618663</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376499</v>
+        <v>14.76524575376502</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954444</v>
+        <v>13.71299560954446</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773074</v>
+        <v>14.17991993773077</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907858</v>
+        <v>30.45462265907861</v>
       </c>
       <c r="H34" t="n">
-        <v>21.002990281769</v>
+        <v>21.00299028176903</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598349</v>
+        <v>5.985085466598377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501566</v>
+        <v>11.25063508501569</v>
       </c>
       <c r="S34" t="n">
-        <v>74.7967364835994</v>
+        <v>74.79673648359943</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572804</v>
+        <v>94.07123516572807</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3250,10 +3250,10 @@
         <v>146.518908981025</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682808</v>
+        <v>92.16401097682811</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289577</v>
+        <v>83.0388787328958</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -3402,7 +3402,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C44" t="n">
         <v>211.9853559380638</v>
@@ -3995,7 +3995,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349269</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384202</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205612</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="45">
@@ -4113,7 +4113,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5461750406456</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W46" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112108</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.336790561119</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="C2" t="n">
-        <v>1193.336790561119</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.336790561119</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="E2" t="n">
-        <v>798.5510706672255</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="F2" t="n">
-        <v>384.3998799773958</v>
+        <v>51.57860557470512</v>
       </c>
       <c r="G2" t="n">
-        <v>372.3362974719878</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J2" t="n">
         <v>111.5135673421028</v>
@@ -4334,46 +4334,46 @@
         <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5393124718319</v>
+        <v>576.5868939086297</v>
       </c>
       <c r="M2" t="n">
-        <v>1092.77847872492</v>
+        <v>969.8260601617176</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.109837412635</v>
+        <v>1348.157418849433</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.114421885469</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.318899778318</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464855</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464855</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="T2" t="n">
-        <v>1969.410470557644</v>
+        <v>1473.524945322076</v>
       </c>
       <c r="U2" t="n">
-        <v>1969.410470557644</v>
+        <v>1473.524945322076</v>
       </c>
       <c r="V2" t="n">
-        <v>1969.410470557644</v>
+        <v>1136.545671218017</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.410470557644</v>
+        <v>859.7733357825539</v>
       </c>
       <c r="X2" t="n">
-        <v>1587.380330079138</v>
+        <v>859.7733357825539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.380330079138</v>
+        <v>859.7733357825539</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>721.7169982846867</v>
+        <v>688.7418255023568</v>
       </c>
       <c r="C3" t="n">
-        <v>560.0133255256414</v>
+        <v>688.7418255023568</v>
       </c>
       <c r="D3" t="n">
-        <v>421.1746885158535</v>
+        <v>549.9031884925689</v>
       </c>
       <c r="E3" t="n">
-        <v>274.1466785727247</v>
+        <v>402.8751785494402</v>
       </c>
       <c r="F3" t="n">
-        <v>139.4528805225991</v>
+        <v>268.1813804993145</v>
       </c>
       <c r="G3" t="n">
         <v>139.4528805225991</v>
       </c>
       <c r="H3" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240325</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K3" t="n">
-        <v>329.2597221625919</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="L3" t="n">
-        <v>329.2597221625919</v>
+        <v>405.3368682394128</v>
       </c>
       <c r="M3" t="n">
-        <v>634.6852431368611</v>
+        <v>792.4568729224571</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619413</v>
+        <v>1281.455283405009</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403564</v>
+        <v>1673.65523418916</v>
       </c>
       <c r="P3" t="n">
-        <v>1817.979523679261</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559801</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572541</v>
+        <v>1822.951666477598</v>
       </c>
       <c r="T3" t="n">
-        <v>1574.482293738526</v>
+        <v>1822.951666477598</v>
       </c>
       <c r="U3" t="n">
-        <v>1355.987501336836</v>
+        <v>1604.456874075908</v>
       </c>
       <c r="V3" t="n">
-        <v>1127.59187878517</v>
+        <v>1376.061251524242</v>
       </c>
       <c r="W3" t="n">
-        <v>886.2760100184804</v>
+        <v>1134.745382757552</v>
       </c>
       <c r="X3" t="n">
-        <v>886.2760100184804</v>
+        <v>936.8283946353464</v>
       </c>
       <c r="Y3" t="n">
-        <v>881.1364410659476</v>
+        <v>744.3070682849252</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.51502306929711</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="C4" t="n">
-        <v>39.51502306929711</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="D4" t="n">
-        <v>39.51502306929711</v>
+        <v>1822.67926029262</v>
       </c>
       <c r="E4" t="n">
-        <v>39.51502306929711</v>
+        <v>1670.670246053939</v>
       </c>
       <c r="F4" t="n">
-        <v>39.51502306929711</v>
+        <v>1518.189591079716</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929711</v>
+        <v>1518.189591079716</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394053</v>
+        <v>1477.296095963569</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142</v>
+        <v>1577.903175363828</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7197963418018</v>
+        <v>1695.89668149143</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1421380914022</v>
+        <v>1814.31902324103</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>1912.78266973672</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S4" t="n">
-        <v>510.2606312645771</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T4" t="n">
-        <v>510.2606312645771</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="U4" t="n">
-        <v>223.0703917536769</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="V4" t="n">
-        <v>223.0703917536769</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="W4" t="n">
-        <v>223.0703917536769</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="X4" t="n">
-        <v>223.0703917536769</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.0703917536769</v>
+        <v>1975.751153464857</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.339480931204</v>
+        <v>578.255081918139</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.339480931204</v>
+        <v>196.3213232509464</v>
       </c>
       <c r="D5" t="n">
-        <v>860.5155161584279</v>
+        <v>196.3213232509464</v>
       </c>
       <c r="E5" t="n">
-        <v>465.7297962645347</v>
+        <v>196.3213232509464</v>
       </c>
       <c r="F5" t="n">
-        <v>51.57860557470507</v>
+        <v>51.57860557470512</v>
       </c>
       <c r="G5" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="H5" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5135673421028</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6539393868856</v>
+        <v>228.7015208236834</v>
       </c>
       <c r="L5" t="n">
-        <v>699.5393124718319</v>
+        <v>576.5868939086297</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.77847872492</v>
+        <v>969.8260601617176</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.109837412635</v>
+        <v>1348.157418849433</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322265</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778318</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S5" t="n">
-        <v>1851.240282624355</v>
+        <v>1788.522178095212</v>
       </c>
       <c r="T5" t="n">
-        <v>1626.881336355366</v>
+        <v>1564.163231826223</v>
       </c>
       <c r="U5" t="n">
-        <v>1626.881336355366</v>
+        <v>1309.277895540217</v>
       </c>
       <c r="V5" t="n">
-        <v>1626.881336355366</v>
+        <v>972.2986214361581</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.881336355366</v>
+        <v>972.2986214361581</v>
       </c>
       <c r="X5" t="n">
-        <v>1626.881336355366</v>
+        <v>972.2986214361581</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.339480931204</v>
+        <v>972.2986214361581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>375.4644453657395</v>
+        <v>918.8277835713412</v>
       </c>
       <c r="C6" t="n">
-        <v>375.4644453657395</v>
+        <v>757.124110812296</v>
       </c>
       <c r="D6" t="n">
-        <v>236.6258083559515</v>
+        <v>618.285473802508</v>
       </c>
       <c r="E6" t="n">
-        <v>236.6258083559515</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F6" t="n">
-        <v>236.6258083559515</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8973083792361</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8973083792361</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929711</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240325</v>
+        <v>99.7691696024033</v>
       </c>
       <c r="K6" t="n">
-        <v>329.2597221625919</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L6" t="n">
-        <v>695.0815673327076</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
-        <v>695.0815673327076</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N6" t="n">
-        <v>1184.079977815259</v>
+        <v>1583.551202680707</v>
       </c>
       <c r="O6" t="n">
-        <v>1576.27992859941</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="P6" t="n">
-        <v>1878.375847875107</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559801</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572541</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738526</v>
+        <v>1574.482293738529</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336836</v>
+        <v>1355.987501336839</v>
       </c>
       <c r="V6" t="n">
-        <v>1127.59187878517</v>
+        <v>1276.164214474808</v>
       </c>
       <c r="W6" t="n">
-        <v>886.2760100184804</v>
+        <v>1276.164214474808</v>
       </c>
       <c r="X6" t="n">
-        <v>727.4052144974215</v>
+        <v>1078.247226352602</v>
       </c>
       <c r="Y6" t="n">
-        <v>534.8838881470003</v>
+        <v>1078.247226352602</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.51502306929711</v>
+        <v>1595.700922457606</v>
       </c>
       <c r="C7" t="n">
-        <v>39.51502306929711</v>
+        <v>1595.700922457606</v>
       </c>
       <c r="D7" t="n">
-        <v>39.51502306929711</v>
+        <v>1595.700922457606</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929711</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394053</v>
+        <v>1477.296095963569</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7262902142</v>
+        <v>1577.903175363828</v>
       </c>
       <c r="M7" t="n">
-        <v>291.7197963418018</v>
+        <v>1695.89668149143</v>
       </c>
       <c r="N7" t="n">
-        <v>410.1421380914022</v>
+        <v>1814.31902324103</v>
       </c>
       <c r="O7" t="n">
-        <v>508.6057845870918</v>
+        <v>1912.78266973672</v>
       </c>
       <c r="P7" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R7" t="n">
-        <v>422.0524869296078</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S7" t="n">
-        <v>422.0524869296078</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T7" t="n">
-        <v>188.8735337452866</v>
+        <v>1742.572200280536</v>
       </c>
       <c r="U7" t="n">
-        <v>188.8735337452866</v>
+        <v>1742.572200280536</v>
       </c>
       <c r="V7" t="n">
-        <v>188.8735337452866</v>
+        <v>1742.572200280536</v>
       </c>
       <c r="W7" t="n">
-        <v>188.8735337452866</v>
+        <v>1742.572200280536</v>
       </c>
       <c r="X7" t="n">
-        <v>188.8735337452866</v>
+        <v>1595.700922457606</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.8735337452866</v>
+        <v>1595.700922457606</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.8397888200133</v>
+        <v>863.02474919033</v>
       </c>
       <c r="C8" t="n">
-        <v>609.8397888200133</v>
+        <v>863.02474919033</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>863.02474919033</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1689.624883421327</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>1689.624883421327</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V8" t="n">
-        <v>1689.624883421327</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="W8" t="n">
-        <v>1327.089953278928</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="X8" t="n">
-        <v>1003.883328338032</v>
+        <v>1256.566604614492</v>
       </c>
       <c r="Y8" t="n">
-        <v>1003.883328338032</v>
+        <v>863.02474919033</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>653.7698796167399</v>
+        <v>635.4703696503266</v>
       </c>
       <c r="C9" t="n">
-        <v>492.0662068576946</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="D9" t="n">
-        <v>492.0662068576946</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="E9" t="n">
-        <v>345.0381969145658</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4893,13 +4893,13 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4920,13 +4920,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1185.328126904214</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>987.4111387820086</v>
       </c>
       <c r="Y9" t="n">
-        <v>813.1893223980007</v>
+        <v>794.8898124315874</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.6492398782001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
         <v>42.02425610119923</v>
@@ -4999,13 +4999,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>547.2046085625799</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1597.667903912638</v>
+        <v>1319.20030888036</v>
       </c>
       <c r="C11" t="n">
-        <v>1597.667903912638</v>
+        <v>1030.089234470776</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.66662339747</v>
+        <v>750.0879539556088</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.703587761186</v>
+        <v>448.1249183193246</v>
       </c>
       <c r="F11" t="n">
-        <v>694.3750813289654</v>
+        <v>448.1249183193246</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407625</v>
+        <v>124.8436160311217</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
         <v>214.074731475774</v>
       </c>
       <c r="K11" t="n">
-        <v>454.2151035205568</v>
+        <v>532.9166187022972</v>
       </c>
       <c r="L11" t="n">
-        <v>893.0759894463856</v>
+        <v>971.7775046281261</v>
       </c>
       <c r="M11" t="n">
-        <v>1367.157599119383</v>
+        <v>1365.016670881214</v>
       </c>
       <c r="N11" t="n">
-        <v>1745.488957807099</v>
+        <v>1743.34802956893</v>
       </c>
       <c r="O11" t="n">
-        <v>2141.469055120815</v>
+        <v>2048.352614041763</v>
       </c>
       <c r="P11" t="n">
-        <v>2369.625951576868</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104288</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R11" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.627426992251</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T11" t="n">
-        <v>2460.627426992251</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="U11" t="n">
-        <v>2457.808461278736</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="V11" t="n">
-        <v>2457.808461278736</v>
+        <v>2179.340866246458</v>
       </c>
       <c r="W11" t="n">
-        <v>2188.096215393946</v>
+        <v>1909.628620361668</v>
       </c>
       <c r="X11" t="n">
-        <v>1898.888759173048</v>
+        <v>1620.42116414077</v>
       </c>
       <c r="Y11" t="n">
-        <v>1898.888759173048</v>
+        <v>1620.42116414077</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
         <v>482.8431151521678</v>
@@ -5112,10 +5112,10 @@
         <v>219.4208171253267</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
@@ -5136,34 +5136,34 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P12" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.3852856781407</v>
+        <v>298.4161539777425</v>
       </c>
       <c r="C13" t="n">
-        <v>312.59200039743</v>
+        <v>221.6228686970319</v>
       </c>
       <c r="D13" t="n">
-        <v>312.59200039743</v>
+        <v>221.6228686970319</v>
       </c>
       <c r="E13" t="n">
-        <v>253.4056704163578</v>
+        <v>162.4365387159597</v>
       </c>
       <c r="F13" t="n">
-        <v>193.7476996997439</v>
+        <v>162.4365387159597</v>
       </c>
       <c r="G13" t="n">
-        <v>117.6506353252029</v>
+        <v>162.4365387159597</v>
       </c>
       <c r="H13" t="n">
-        <v>51.10067436208575</v>
+        <v>95.88657775284275</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499907</v>
       </c>
       <c r="K13" t="n">
         <v>207.7937882505251</v>
@@ -5209,7 +5209,7 @@
         <v>608.3453994601515</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506344</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5224,25 +5224,25 @@
         <v>1214.331474543591</v>
       </c>
       <c r="S13" t="n">
-        <v>1093.444396204887</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="T13" t="n">
-        <v>1093.444396204887</v>
+        <v>1073.975205616878</v>
       </c>
       <c r="U13" t="n">
-        <v>899.0768409515958</v>
+        <v>879.6076503635873</v>
       </c>
       <c r="V13" t="n">
-        <v>899.0768409515958</v>
+        <v>711.6950301796189</v>
       </c>
       <c r="W13" t="n">
-        <v>705.7431237266039</v>
+        <v>518.3613129546271</v>
       </c>
       <c r="X13" t="n">
-        <v>567.3133438795887</v>
+        <v>518.3613129546271</v>
       </c>
       <c r="Y13" t="n">
-        <v>480.1179701049115</v>
+        <v>389.1488384045132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1566.785873643544</v>
+        <v>1150.017399725187</v>
       </c>
       <c r="C14" t="n">
-        <v>1277.674799233961</v>
+        <v>860.906325315603</v>
       </c>
       <c r="D14" t="n">
-        <v>997.6735187187935</v>
+        <v>580.9050448004357</v>
       </c>
       <c r="E14" t="n">
-        <v>695.7104830825094</v>
+        <v>278.9420091641516</v>
       </c>
       <c r="F14" t="n">
-        <v>374.3819766502888</v>
+        <v>278.9420091641516</v>
       </c>
       <c r="G14" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J14" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>441.9411058614155</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
-        <v>880.8019917872443</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
-        <v>1274.041158040332</v>
+        <v>1377.290668540356</v>
       </c>
       <c r="N14" t="n">
-        <v>1743.348029568931</v>
+        <v>1846.597540068954</v>
       </c>
       <c r="O14" t="n">
-        <v>2048.352614041764</v>
+        <v>2151.602124541788</v>
       </c>
       <c r="P14" t="n">
-        <v>2367.4850233387</v>
+        <v>2379.759020997842</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.89278986612</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R14" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.627426992251</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T14" t="n">
-        <v>2460.627426992251</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U14" t="n">
-        <v>2426.926431009642</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="V14" t="n">
-        <v>2426.926431009642</v>
+        <v>2310.877128257837</v>
       </c>
       <c r="W14" t="n">
-        <v>2157.214185124853</v>
+        <v>2041.164882373047</v>
       </c>
       <c r="X14" t="n">
-        <v>1868.006728903955</v>
+        <v>1751.95742615215</v>
       </c>
       <c r="Y14" t="n">
-        <v>1868.006728903955</v>
+        <v>1451.238254985597</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040259</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449806</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351927</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920639</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419383</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652228</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
-        <v>104.7703422119209</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J15" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L15" t="n">
         <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O15" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P15" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
         <v>2495.249449199233</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
         <v>2153.764858377959</v>
@@ -5397,10 +5397,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.368184902704</v>
+        <v>330.7901938950828</v>
       </c>
       <c r="C16" t="n">
-        <v>347.368184902704</v>
+        <v>253.9969086143721</v>
       </c>
       <c r="D16" t="n">
-        <v>312.59200039743</v>
+        <v>193.7476996997439</v>
       </c>
       <c r="E16" t="n">
-        <v>253.4056704163578</v>
+        <v>193.7476996997439</v>
       </c>
       <c r="F16" t="n">
-        <v>193.747699699744</v>
+        <v>193.7476996997439</v>
       </c>
       <c r="G16" t="n">
         <v>117.6506353252029</v>
       </c>
       <c r="H16" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499904</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505252</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L16" t="n">
         <v>399.3763804916672</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601515</v>
       </c>
       <c r="N16" t="n">
         <v>817.7432540506345</v>
@@ -5464,22 +5464,22 @@
         <v>1093.444396204887</v>
       </c>
       <c r="T16" t="n">
-        <v>1093.444396204887</v>
+        <v>953.0881272781751</v>
       </c>
       <c r="U16" t="n">
-        <v>899.0768409515958</v>
+        <v>758.7205720248839</v>
       </c>
       <c r="V16" t="n">
-        <v>899.0768409515958</v>
+        <v>744.0690700969592</v>
       </c>
       <c r="W16" t="n">
-        <v>705.743123726604</v>
+        <v>550.7353528719675</v>
       </c>
       <c r="X16" t="n">
-        <v>567.3133438795887</v>
+        <v>550.7353528719675</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.1008693294749</v>
+        <v>421.5228783218536</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G17" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11073664575753</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>527.7073651707065</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>875.5927382556526</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.640850310116</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N17" t="n">
-        <v>1762.972208997831</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O17" t="n">
-        <v>2067.976793470665</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P17" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q17" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T17" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U17" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V17" t="n">
         <v>2222.809732105717</v>
@@ -5555,10 +5555,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
         <v>111.3548208951919</v>
@@ -5613,31 +5613,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.90950739287325</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670354</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670354</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670354</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208575</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208575</v>
+        <v>73.73844678336764</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672917</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L19" t="n">
-        <v>230.4180900440251</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4115961716268</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N19" t="n">
-        <v>466.8339379212272</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>565.2975844169168</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>628.2660681450546</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>628.2660681450546</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
-        <v>628.2660681450546</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>582.3634420562744</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>516.9916253794854</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>397.6085223761174</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>304.6803544420723</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>186.3310894670036</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>122.8857618699116</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.65773956972086</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5732,55 +5732,55 @@
         <v>1147.761190413099</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478543</v>
+        <v>942.7443621478546</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614934</v>
+        <v>715.7657787614937</v>
       </c>
       <c r="F20" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G20" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H20" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K20" t="n">
-        <v>363.2395906796742</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L20" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.364130017708</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N20" t="n">
-        <v>1647.163263196456</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O20" t="n">
-        <v>2116.635622160323</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P20" t="n">
-        <v>2344.792518616376</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.40052821597</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R20" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S20" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T20" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U20" t="n">
         <v>2391.981869702243</v>
@@ -5823,10 +5823,10 @@
         <v>219.4208171253267</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
@@ -5847,10 +5847,10 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P21" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
         <v>2509.962066659337</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.90950739287319</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670348</v>
+        <v>64.37647391795821</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670348</v>
+        <v>64.37647391795821</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670348</v>
+        <v>79.39795846875474</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672917</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N22" t="n">
-        <v>466.8339379212265</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O22" t="n">
-        <v>565.2975844169162</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P22" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q22" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R22" t="n">
         <v>628.266068145054</v>
@@ -5969,10 +5969,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E23" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F23" t="n">
         <v>469.4217245791957</v>
@@ -5984,31 +5984,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N23" t="n">
-        <v>1811.631037687489</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O23" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P23" t="n">
         <v>2344.792518616376</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6032,7 +6032,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H24" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6090,22 +6090,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
         <v>1267.641586535707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670345</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670345</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208573</v>
+        <v>79.91381386609162</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208573</v>
+        <v>79.91381386609162</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208573</v>
+        <v>79.91381386609162</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208573</v>
+        <v>79.91381386609162</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672914</v>
+        <v>113.518001610735</v>
       </c>
       <c r="L25" t="n">
-        <v>185.3119415069887</v>
+        <v>214.1250810109945</v>
       </c>
       <c r="M25" t="n">
-        <v>349.5242082962438</v>
+        <v>332.1185871385962</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9465500458442</v>
+        <v>450.5409288881966</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>549.0045753838863</v>
       </c>
       <c r="P25" t="n">
-        <v>629.3786802696717</v>
+        <v>611.9730591120241</v>
       </c>
       <c r="Q25" t="n">
-        <v>629.3786802696717</v>
+        <v>611.9730591120241</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W25" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.398690093979</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044544</v>
+        <v>1386.425607044543</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133873</v>
+        <v>878.7372736133858</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413134</v>
+        <v>594.5467585413123</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132574</v>
+        <v>308.4034476132565</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283224</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006427</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183881</v>
+        <v>629.5741583183884</v>
       </c>
       <c r="L26" t="n">
         <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178481</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039159</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684956</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313972</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173471</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743716</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991829</v>
+        <v>3077.047982991826</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340597</v>
+        <v>2982.649712340593</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672347</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186044</v>
+        <v>2650.706453186041</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661401</v>
+        <v>2418.132198661398</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.06273380065</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994244</v>
+        <v>1902.481553994242</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>927.2864686968139</v>
+        <v>941.9990861569185</v>
       </c>
       <c r="C27" t="n">
-        <v>765.5827959377687</v>
+        <v>780.2954133978732</v>
       </c>
       <c r="D27" t="n">
-        <v>626.7441589279807</v>
+        <v>641.4567763880852</v>
       </c>
       <c r="E27" t="n">
-        <v>479.7161489848519</v>
+        <v>494.4287664449564</v>
       </c>
       <c r="F27" t="n">
-        <v>345.0223509347263</v>
+        <v>359.7349683948307</v>
       </c>
       <c r="G27" t="n">
-        <v>216.2938509580109</v>
+        <v>231.0064684181153</v>
       </c>
       <c r="H27" t="n">
-        <v>116.3559935047089</v>
+        <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6345,10 +6345,10 @@
         <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1279.227237828496</v>
+        <v>1293.9398552886</v>
       </c>
       <c r="Y27" t="n">
-        <v>1086.705911478075</v>
+        <v>1101.418528938179</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042409</v>
+        <v>252.6345665042396</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836772</v>
+        <v>212.9792725836761</v>
       </c>
       <c r="D28" t="n">
-        <v>189.868055029196</v>
+        <v>189.8680550291951</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082708</v>
+        <v>167.8197164082701</v>
       </c>
       <c r="F28" t="n">
-        <v>145.299737051804</v>
+        <v>145.2997370518034</v>
       </c>
       <c r="G28" t="n">
-        <v>106.34066403741</v>
+        <v>106.3406640374096</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443985</v>
+        <v>76.92869443443961</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J28" t="n">
-        <v>108.7668422047139</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="K28" t="n">
-        <v>269.74548812232</v>
+        <v>223.6649715724806</v>
       </c>
       <c r="L28" t="n">
-        <v>497.7270256955422</v>
+        <v>324.2720509727401</v>
       </c>
       <c r="M28" t="n">
-        <v>615.7205318231439</v>
+        <v>569.6400152733047</v>
       </c>
       <c r="N28" t="n">
-        <v>734.1428735727443</v>
+        <v>771.913321826261</v>
       </c>
       <c r="O28" t="n">
-        <v>959.9809782413967</v>
+        <v>870.3769683219507</v>
       </c>
       <c r="P28" t="n">
-        <v>1150.323920142497</v>
+        <v>1060.719910223051</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142497</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396075</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295101</v>
+        <v>943.7954498295079</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363659</v>
+        <v>786.565885936364</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125446</v>
+        <v>655.7912571125428</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476998</v>
+        <v>499.595531247698</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608316</v>
+        <v>398.30374276083</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708647</v>
+        <v>306.2292595708633</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093982</v>
+        <v>1638.398690093979</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044545</v>
+        <v>1386.425607044543</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889525</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133876</v>
+        <v>878.7372736133858</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413139</v>
+        <v>594.5467585413123</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132579</v>
+        <v>308.4034476132565</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283224</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006427</v>
+        <v>262.0593281006429</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183881</v>
+        <v>629.5741583183885</v>
       </c>
       <c r="L29" t="n">
         <v>1104.833989576297</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178481</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039159</v>
+        <v>2086.059300039156</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684956</v>
+        <v>2518.438342684953</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313972</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173471</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.04798299183</v>
+        <v>3077.047982991828</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340597</v>
+        <v>2982.649712340595</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672347</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186045</v>
+        <v>2650.706453186043</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661402</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800651</v>
+        <v>2166.06273380065</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994245</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6579,7 +6579,7 @@
         <v>1718.460094717391</v>
       </c>
       <c r="W30" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X30" t="n">
         <v>1293.9398552886</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042409</v>
+        <v>252.6345665042396</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836772</v>
+        <v>212.9792725836761</v>
       </c>
       <c r="D31" t="n">
-        <v>189.868055029196</v>
+        <v>189.8680550291951</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082708</v>
+        <v>167.8197164082701</v>
       </c>
       <c r="F31" t="n">
-        <v>145.299737051804</v>
+        <v>145.2997370518034</v>
       </c>
       <c r="G31" t="n">
-        <v>106.34066403741</v>
+        <v>106.3406640374096</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443985</v>
+        <v>76.92869443443962</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J31" t="n">
-        <v>131.1986842898677</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>164.8028720345112</v>
+        <v>164.8028720345113</v>
       </c>
       <c r="L31" t="n">
-        <v>370.3525675225795</v>
+        <v>265.4099514347708</v>
       </c>
       <c r="M31" t="n">
-        <v>615.7205318231439</v>
+        <v>510.7779157353353</v>
       </c>
       <c r="N31" t="n">
-        <v>734.1428735727443</v>
+        <v>756.5747156578985</v>
       </c>
       <c r="O31" t="n">
-        <v>959.9809782413967</v>
+        <v>870.3769683219507</v>
       </c>
       <c r="P31" t="n">
-        <v>1150.323920142497</v>
+        <v>1060.719910223051</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142497</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396075</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295101</v>
+        <v>943.7954498295079</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363659</v>
+        <v>786.565885936364</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125446</v>
+        <v>655.7912571125428</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476998</v>
+        <v>499.595531247698</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608316</v>
+        <v>398.30374276083</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708647</v>
+        <v>306.2292595708633</v>
       </c>
     </row>
     <row r="32">
@@ -6683,40 +6683,40 @@
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646302</v>
+        <v>843.4407289646304</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.4470417967702</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729277</v>
+        <v>289.5005587729278</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220664</v>
+        <v>94.83678789220667</v>
       </c>
       <c r="I32" t="n">
         <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5838060976603</v>
+        <v>162.6420266521942</v>
       </c>
       <c r="K32" t="n">
-        <v>538.1905678988587</v>
+        <v>402.782398696977</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.484110185687</v>
+        <v>886.0759409838056</v>
       </c>
       <c r="M32" t="n">
-        <v>1550.131445640658</v>
+        <v>1414.723276438776</v>
       </c>
       <c r="N32" t="n">
-        <v>2063.870973530256</v>
+        <v>1928.462804328374</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.283727204972</v>
+        <v>2368.875558003091</v>
       </c>
       <c r="P32" t="n">
-        <v>2867.848792862908</v>
+        <v>2732.440623661026</v>
       </c>
       <c r="Q32" t="n">
         <v>2962.281046549445</v>
@@ -6731,7 +6731,7 @@
         <v>2873.581716553918</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789881</v>
+        <v>2756.853883789882</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
@@ -6743,7 +6743,7 @@
         <v>2089.782049630826</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.397697728633</v>
+        <v>1834.397697728634</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
-        <v>638.9475433561831</v>
+        <v>624.2349258960786</v>
       </c>
       <c r="E33" t="n">
-        <v>491.9195334130543</v>
+        <v>477.2069159529498</v>
       </c>
       <c r="F33" t="n">
         <v>357.2257353629286</v>
@@ -6819,10 +6819,10 @@
         <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428437</v>
+        <v>192.7475381428439</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264936</v>
+        <v>161.2890721264937</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762259</v>
+        <v>146.3746824762261</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595144</v>
+        <v>132.5231717595145</v>
       </c>
       <c r="F34" t="n">
-        <v>118.2000203072611</v>
+        <v>118.2000203072612</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708071</v>
+        <v>87.43777519708077</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832414</v>
+        <v>66.22263349832417</v>
       </c>
       <c r="I34" t="n">
         <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>136.7231622868853</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315288</v>
+        <v>170.3273500315287</v>
       </c>
       <c r="L34" t="n">
         <v>270.9344294317883</v>
       </c>
       <c r="M34" t="n">
-        <v>465.9946302659854</v>
+        <v>388.92793555939</v>
       </c>
       <c r="N34" t="n">
-        <v>584.4169720155858</v>
+        <v>622.1874202691056</v>
       </c>
       <c r="O34" t="n">
-        <v>818.2887877131578</v>
+        <v>856.0592359666776</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.0277196948155</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6883,25 +6883,25 @@
         <v>1005.301162779526</v>
       </c>
       <c r="S34" t="n">
-        <v>929.748903705183</v>
+        <v>929.7489037051835</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428315</v>
+        <v>834.7274540428319</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539009</v>
+        <v>685.6947180539014</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342932</v>
+        <v>563.1169171342935</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736619</v>
+        <v>415.1180191736622</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910072</v>
+        <v>322.0230585910075</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052539</v>
+        <v>238.1454033052541</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479474</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927301</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>751.3007196776764</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1144.539885930764</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1522.87124461848</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>1827.875829091314</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.601464417751</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
         <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>119.4829596720248</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7050,16 +7050,16 @@
         <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500839</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070936</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>96.04791054150589</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>94.93529841688816</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K37" t="n">
         <v>129.8110106437649</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479474</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927301</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776764</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1979.677157352105</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>1977.868324321318</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>1977.868324321318</v>
+        <v>63.91421883305377</v>
       </c>
       <c r="E40" t="n">
-        <v>1977.868324321318</v>
+        <v>79.39795846875474</v>
       </c>
       <c r="F40" t="n">
-        <v>1977.868324321318</v>
+        <v>79.39795846875474</v>
       </c>
       <c r="G40" t="n">
-        <v>1976.7557121967</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="H40" t="n">
-        <v>1976.7557121967</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="I40" t="n">
-        <v>1976.7557121967</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.974472858353</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K40" t="n">
-        <v>2056.578660602997</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L40" t="n">
-        <v>2157.185740003256</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M40" t="n">
-        <v>2275.179246130858</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N40" t="n">
-        <v>2393.601587880459</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O40" t="n">
-        <v>2492.065234376149</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P40" t="n">
-        <v>2555.033718104286</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q40" t="n">
-        <v>2555.033718104286</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R40" t="n">
-        <v>2555.033718104286</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>2509.131092015506</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>2443.759275338717</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>2324.376172335349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>2231.448004401304</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>2113.098739426235</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>2049.653411829143</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>1995.425389528953</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7412,22 +7412,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0485364810482</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>826.9339095659944</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.97220899783</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P41" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7567,7 +7567,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
         <v>130.9236227683826</v>
@@ -7640,7 +7640,7 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
@@ -7649,25 +7649,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M44" t="n">
-        <v>1144.539885930764</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7682,7 +7682,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W44" t="n">
         <v>2028.08193847085</v>
@@ -7749,16 +7749,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
         <v>1721.587060884707</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500831</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500831</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500831</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039053</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039053</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039053</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039053</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437655</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686424</v>
+        <v>230.4180900440251</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962442</v>
+        <v>348.4115961716268</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458446</v>
+        <v>466.8339379212272</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415342</v>
+        <v>565.2975844169168</v>
       </c>
       <c r="P46" t="n">
-        <v>629.378680269672</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.378680269672</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="R46" t="n">
-        <v>629.378680269672</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041029</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U46" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666899</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>418.7652167305329</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -7994,7 +7994,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>294.1439584378726</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8055,19 +8055,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>423.9945298083765</v>
+        <v>506.5142103222908</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339221</v>
+        <v>600.6529294339227</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>369.9204764532248</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8228,7 +8228,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>370.845873456514</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8301,19 +8301,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>600.6529294339221</v>
+        <v>514.226536863438</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.0940859799915</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8541,16 +8541,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597489</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828750009</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319188</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654877</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>164.5930919912854</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>157.6512494517328</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548875</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548197</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831534</v>
+        <v>6.528512181466112</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673265</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
-        <v>138.952706237445</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.59692976768224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>94.48556781127584</v>
       </c>
       <c r="H14" t="n">
         <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825903</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T14" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>127.0780394853304</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790358</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25.21829416526067</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831534</v>
+        <v>50.86655653831531</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673265</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.952706237445</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821287</v>
+        <v>151.7285070734833</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26314,25 +26314,25 @@
         <v>19190.60151235454</v>
       </c>
       <c r="C2" t="n">
-        <v>19190.60151235454</v>
+        <v>19190.60151235453</v>
       </c>
       <c r="D2" t="n">
         <v>19190.60151235454</v>
       </c>
       <c r="E2" t="n">
-        <v>16666.64136598627</v>
+        <v>16666.64136598628</v>
       </c>
       <c r="F2" t="n">
-        <v>16666.64136598629</v>
+        <v>16666.64136598628</v>
       </c>
       <c r="G2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235454</v>
       </c>
       <c r="H2" t="n">
         <v>19190.60151235455</v>
       </c>
       <c r="I2" t="n">
-        <v>19190.60151235454</v>
+        <v>19190.60151235455</v>
       </c>
       <c r="J2" t="n">
         <v>19190.60151235455</v>
@@ -26341,19 +26341,19 @@
         <v>19190.60151235455</v>
       </c>
       <c r="L2" t="n">
-        <v>19190.60151235452</v>
+        <v>19190.60151235451</v>
       </c>
       <c r="M2" t="n">
         <v>19190.60151235455</v>
       </c>
       <c r="N2" t="n">
-        <v>19190.60151235455</v>
+        <v>19190.60151235454</v>
       </c>
       <c r="O2" t="n">
         <v>19190.60151235454</v>
       </c>
       <c r="P2" t="n">
-        <v>19190.60151235454</v>
+        <v>19190.60151235452</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506507</v>
+        <v>165529.9134506508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746952</v>
+        <v>9743.038208746775</v>
       </c>
       <c r="E3" t="n">
-        <v>107390.8010757636</v>
+        <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193917</v>
+        <v>59387.68618193919</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210668.4794422431</v>
+        <v>210668.4794422433</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207635</v>
+        <v>65879.57388207622</v>
       </c>
       <c r="M3" t="n">
         <v>23482.50932456565</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732355</v>
+        <v>43541.16890732371</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.0330603502</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603502</v>
+        <v>194229.03306035</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353294</v>
+        <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353294</v>
+        <v>118181.7253353295</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26436,10 +26436,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="I4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
         <v>176368.8129357921</v>
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266579</v>
+        <v>63659.01753266584</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266579</v>
+        <v>63659.01753266584</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46561.98765560958</v>
+        <v>46561.98765560957</v>
       </c>
       <c r="F5" t="n">
-        <v>46561.98765560958</v>
+        <v>46561.98765560956</v>
       </c>
       <c r="G5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="H5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582857</v>
+        <v>58458.01489582854</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582857</v>
+        <v>58458.01489582856</v>
       </c>
       <c r="L5" t="n">
         <v>57233.2059254115</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404227.3625313122</v>
+        <v>-404227.3625313123</v>
       </c>
       <c r="C6" t="n">
-        <v>-238697.4490806615</v>
+        <v>-238697.4490806613</v>
       </c>
       <c r="D6" t="n">
-        <v>-241894.230666597</v>
+        <v>-241894.2306665968</v>
       </c>
       <c r="E6" t="n">
-        <v>-255467.8727007163</v>
+        <v>-255720.2687153531</v>
       </c>
       <c r="F6" t="n">
-        <v>-148077.0716249527</v>
+        <v>-148329.4676395895</v>
       </c>
       <c r="G6" t="n">
         <v>-268623.0221024667</v>
       </c>
       <c r="H6" t="n">
-        <v>-209235.3359205276</v>
+        <v>-209235.3359205275</v>
       </c>
       <c r="I6" t="n">
         <v>-209235.3359205275</v>
@@ -26549,7 +26549,7 @@
         <v>-215636.2263192661</v>
       </c>
       <c r="L6" t="n">
-        <v>-280122.9948265341</v>
+        <v>-280122.9948265339</v>
       </c>
       <c r="M6" t="n">
         <v>-232717.8452450932</v>
@@ -26558,7 +26558,7 @@
         <v>-209235.3359205275</v>
       </c>
       <c r="O6" t="n">
-        <v>-252776.504827851</v>
+        <v>-252776.5048278512</v>
       </c>
       <c r="P6" t="n">
         <v>-209235.3359205275</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662138</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662138</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="G4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859299</v>
+        <v>783.5790706859291</v>
       </c>
       <c r="K4" t="n">
-        <v>783.5790706859299</v>
+        <v>783.5790706859293</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871534</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742396</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415444</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259544</v>
+        <v>82.34946735259527</v>
       </c>
       <c r="M2" t="n">
         <v>29.35313665570706</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415444</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662138</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877653</v>
+        <v>31.36541289877596</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742396</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415444</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662138</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877653</v>
+        <v>31.36541289877596</v>
       </c>
       <c r="M4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>215.8380807281603</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>84.90496875986639</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>102.8156579987056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>185.5079398239094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>84.02621273633585</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27585,13 +27585,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>150.8721642902034</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>266.7143882834525</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,16 +27664,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>62.09092348385454</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>147.0866123327385</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>38.65573067513506</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.85488942830642</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27780,7 +27780,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27819,7 +27819,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27837,7 +27837,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>83.53737441887742</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>58.23528038223537</v>
+        <v>106.193844001257</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>171.8545606377212</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>189.9710755044704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28071,13 +28071,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>167.2159391354157</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2047033629394</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>79.49647998155601</v>
       </c>
       <c r="L11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M11" t="n">
-        <v>81.65903375748417</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>91.89445741503292</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.56549128550301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>79.49647998155692</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503292</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503292</v>
+        <v>79.49647998155555</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.56549128550282</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="17">
@@ -28585,28 +28585,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>116.978733132702</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28703,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.56549128550282</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28725,10 +28725,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D19" t="n">
-        <v>152.6650248714419</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28737,10 +28737,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>147.3538417925092</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>45.56176619902666</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28822,10 +28822,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,16 +28834,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.58157162935001</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>166.1290651424569</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855027</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28962,13 +28962,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D22" t="n">
-        <v>152.6650248714419</v>
+        <v>164.9510727818002</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>45.561766199026</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,31 +29059,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="P23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>116.9787331327003</v>
+        <v>40.58157162935001</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29199,10 +29199,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>164.4841484536139</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M26" t="n">
-        <v>83.11144176676345</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615785</v>
+        <v>83.11144176675862</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550342</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>106.0026425129382</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615785</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>84.69794424581413</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615785</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M29" t="n">
-        <v>83.11144176676345</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615785</v>
+        <v>83.11144176675953</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="30">
@@ -29651,10 +29651,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>106.0026425129383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615785</v>
+        <v>15.49354158420452</v>
       </c>
       <c r="P31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="32">
@@ -29770,10 +29770,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708718</v>
       </c>
       <c r="K32" t="n">
-        <v>30.77413106708647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>136.7759284867499</v>
@@ -29791,7 +29791,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>77.84514616827812</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>115.9971141011265</v>
       </c>
       <c r="O34" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,13 +30007,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.58157162934948</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327018</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>152.6650248714419</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>159.0632869323909</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30168,7 +30168,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>45.56176619902597</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30244,7 +30244,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.5815716293495</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30384,10 +30384,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>164.4841484536139</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1422830299218</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>116.978733132701</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30496,13 +30496,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30639,10 +30639,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30721,28 +30721,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>40.58157162934901</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>116.9787331327012</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>14.56549128550378</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30879,10 +30879,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>32.09772592801171</v>
       </c>
       <c r="L46" t="n">
-        <v>46.68561682995335</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34702,7 +34702,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>227.2050045674183</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34714,7 +34714,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>106.2671493867161</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>308.5106272467366</v>
+        <v>391.0303077606508</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662138</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>191.0974724791781</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34948,7 +34948,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>183.8910766763935</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35021,19 +35021,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.9377883662138</v>
+        <v>407.5113957957297</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.35889453509898</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>164.6202597107962</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>322.0625123500234</v>
       </c>
       <c r="L11" t="n">
         <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>478.8703128010073</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>399.9798962764813</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
         <v>187.2805722499188</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.162553775927762</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486379</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506392</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
@@ -35574,19 +35574,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
-        <v>211.0798171398831</v>
+        <v>211.0798171398832</v>
       </c>
       <c r="N13" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
-        <v>191.3526861985578</v>
+        <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218506</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>322.0625123500243</v>
+        <v>334.4604897835004</v>
       </c>
       <c r="L14" t="n">
         <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
@@ -35662,13 +35662,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868039</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.2805722499188</v>
+        <v>174.8825948164414</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927734</v>
+        <v>2.162553775927762</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.9326803133611</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506392</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
@@ -35811,19 +35811,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398831</v>
+        <v>211.0798171398832</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985578</v>
+        <v>191.3526861985579</v>
       </c>
       <c r="P16" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218506</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
-        <v>514.1900121762252</v>
+        <v>514.1900121762239</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36021,10 +36021,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.123850630927054</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -36033,10 +36033,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4.592827839160986</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
-        <v>147.1850787245413</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M19" t="n">
         <v>119.1853597248502</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36130,16 +36130,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>474.2145040039054</v>
+        <v>348.6670104907976</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.9676864642359</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>76.39716150335175</v>
@@ -36215,10 +36215,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.1473932077755</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36258,13 +36258,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.123850630926996</v>
+        <v>13.40989854128532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>165.1802932188243</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3648479675862</v>
+        <v>135.9676864642359</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36495,10 +36495,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.45758488184836</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573417</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300459</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140494</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M26" t="n">
-        <v>480.3227208102866</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249277</v>
+        <v>465.2643293301078</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230269</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333494</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964643</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247327</v>
+        <v>38.92916522247344</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.54597631296922</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>162.6046928460668</v>
+        <v>162.6046928460669</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870931</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N28" t="n">
-        <v>119.6185270197983</v>
+        <v>204.3164712656125</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451034</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798995</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>90.50910092873077</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573417</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300459</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140494</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M29" t="n">
-        <v>480.3227208102866</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249277</v>
+        <v>465.2643293301088</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230269</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333494</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964643</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247327</v>
+        <v>38.92916522247344</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160946</v>
+        <v>69.20440266160963</v>
       </c>
       <c r="K31" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
-        <v>207.6259550384529</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8464285864287</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N31" t="n">
-        <v>119.6185270197983</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451034</v>
+        <v>114.9517703677295</v>
       </c>
       <c r="P31" t="n">
-        <v>192.2655978798995</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>90.50910092873077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.5017307825132</v>
+        <v>103.4999333628505</v>
       </c>
       <c r="K32" t="n">
-        <v>273.3401634355539</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392209</v>
+        <v>488.1752952392208</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
@@ -37084,13 +37084,13 @@
         <v>444.8613673481983</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>367.2374400585208</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>232.1620433216357</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764472</v>
+        <v>47.04402484764469</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678091</v>
+        <v>77.31926228678088</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
@@ -37233,19 +37233,19 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>197.0305058931283</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>235.6156411209248</v>
       </c>
       <c r="O34" t="n">
         <v>236.2341572702748</v>
       </c>
       <c r="P34" t="n">
-        <v>200.3804575050709</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390202</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251128</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37321,13 +37321,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>347.4402447044727</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.123850630926996</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.284368163872009</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>79.50539018351427</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251128</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37552,7 +37552,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>548.2819527058061</v>
+        <v>499.1316206960502</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37564,7 +37564,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,10 +37680,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>12.94297421309903</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995281</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>359.5447655011685</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37792,13 +37792,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444126</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109243</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>437.7928506728722</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>499.1316206960504</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039053</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
         <v>159.3652826117113</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194199</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>66.04134991250001</v>
       </c>
       <c r="L46" t="n">
-        <v>148.308929355468</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
